--- a/smartknob-simple-bom.xlsx
+++ b/smartknob-simple-bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ohshy\Documents\wOrkFile\workCode\STMCode\smartknob-simple\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UserFiles\Documents\code_design\esp32\SmartKnob-Simple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8D17AA-D19B-48F0-985B-2916E4373682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C91A0F-10DE-40FB-BDA6-8B94A1B022F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10335" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,14 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>simpleFOC3.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双路控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>震动马达</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,6 +175,90 @@
   </si>
   <si>
     <t>Φ30×Φ17×4mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三轴加速度传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mpu-6050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胶水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T8000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110mL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺钉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字头M2×3×20枚，紧定螺钉M3×3×2枚，内六角M3×3×8枚，内六角M3×6×4枚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购了若干枚，共花费18元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购了10个，共12元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLA、PETG等耗材，采购了若干，1KG大概的价格在50元左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源开关按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带灯，自锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平头按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不带灯，回弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simpleFOC2.0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜邦线导线若干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.54mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分线路需要自行焊接，请自行准备电烙铁、焊锡、松香等焊接材料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -244,15 +328,21 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -533,16 +623,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
@@ -551,343 +641,495 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="5">
         <v>33</v>
       </c>
-      <c r="E2" s="1">
-        <v>33</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
         <f>E2*F2</f>
         <v>33</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>31</v>
+      <c r="H2" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>4018</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="5">
+        <v>99</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G19" si="0">E3*F3</f>
+        <v>99</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5">
+        <v>99</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="1">
-        <v>99</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G13" si="0">E3*F3</f>
-        <v>99</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="E7" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="5">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5">
+        <v>21</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="1">
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5">
         <v>7</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="5">
+        <v>18</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="5">
+        <v>7</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="5">
+        <v>50</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="E6" s="1">
-        <v>199</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>199</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="B19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="5">
+        <v>10</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3">
+        <f>SUM(E2:E19)</f>
+        <v>403.7</v>
+      </c>
+      <c r="F20" s="3">
+        <f>SUM(F2:F19)</f>
         <v>19</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="1">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="1">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="1">
-        <v>21</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="1">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="1">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="1">
-        <v>50</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="1">
-        <f>SUM(E2:E13)</f>
-        <v>452</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" ref="F14:G14" si="1">SUM(F2:F13)</f>
-        <v>13</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="1"/>
-        <v>462</v>
-      </c>
-      <c r="H14" s="1"/>
+      <c r="G20" s="1">
+        <f>SUM(G2:G19)</f>
+        <v>413.7</v>
+      </c>
+      <c r="H20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A20:D20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
